--- a/public/downloads/excel/cases_payment_import_template.xlsx
+++ b/public/downloads/excel/cases_payment_import_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Guide\Lab_Bulk_Upload\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Cases_Payment" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="810">
   <si>
     <t>Age</t>
   </si>
@@ -702,9 +702,6 @@
   </si>
   <si>
     <t>Udayapur</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nawalpur</t>
   </si>
   <si>
     <t>Aathrai Tribeni</t>
@@ -3813,7 +3810,7 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:W2001"/>
+  <dimension ref="A1:X2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3835,11 +3832,10 @@
     <col min="12" max="13" width="17.85546875" style="6" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="6" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="15" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="6" customWidth="1"/>
-    <col min="18" max="21" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="0" style="3" hidden="1"/>
-    <col min="24" max="16384" width="9.140625" style="3" hidden="1"/>
+    <col min="16" max="17" width="15" style="6" customWidth="1"/>
+    <col min="18" max="23" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" style="3" hidden="1"/>
+    <col min="25" max="16384" width="9.140625" style="3" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="11" customFormat="1" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14878,7 +14874,7 @@
     <row r="2000" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="2001" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7FjrVK8uoTLtQKrQrRAoSQeYcSzwMyr5sYIkhcl9vMyk6GsJq+ptB4CbqC98e1KY1hfp2tzC9YImVOxcnF2RoQ==" saltValue="gUbE7N5rEM9GdRVlTzoq0A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F500">
       <formula1>"Year,Month,Day"</formula1>
@@ -14899,7 +14895,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
       <formula1>"PCR,Antigen,Clinical Diagnosis,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q1048576">
       <formula1>"Paid, Free"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
@@ -14937,7 +14933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15254,6 +15252,7 @@
       <c r="G15" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="m+Fyi06VgATBwn43EfmrKNJkh2HABbougplfcgapgrFwW4vKUy8Tw9F6EnT1XWwd42o4yZsxzYLg/VbJrPvjYg==" saltValue="3g1VnFSbJefPZLJ7+dGwEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15262,9 +15261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BY1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15484,7 +15481,7 @@
         <v>27</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>94</v>
@@ -15582,1692 +15579,1692 @@
     </row>
     <row r="2" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="AB2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AQ2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="BS2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="BU2" s="2" t="s">
+      <c r="BV2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BX2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BY2" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AT3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="BT3" s="2" t="s">
+      <c r="BU3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="BU3" s="2" t="s">
+      <c r="BV3" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BW3" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BX3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="BY3" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AI4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AT4" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="AU4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="BA4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="BB4" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BA4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BC4" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="BC4" s="2" t="s">
+      <c r="BD4" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BE4" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="BE4" s="2" t="s">
+      <c r="BF4" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="BF4" s="2" t="s">
+      <c r="BG4" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="BG4" s="2" t="s">
+      <c r="BH4" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="BH4" s="2" t="s">
+      <c r="BI4" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="BI4" s="2" t="s">
+      <c r="BJ4" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="BJ4" s="2" t="s">
+      <c r="BK4" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="BK4" s="2" t="s">
+      <c r="BL4" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="BL4" s="2" t="s">
+      <c r="BM4" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="BM4" s="2" t="s">
+      <c r="BN4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="BN4" s="2" t="s">
+      <c r="BO4" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="BO4" s="2" t="s">
+      <c r="BP4" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="BP4" s="2" t="s">
+      <c r="BQ4" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="BQ4" s="2" t="s">
+      <c r="BR4" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="BR4" s="2" t="s">
+      <c r="BS4" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="BS4" s="2" t="s">
+      <c r="BT4" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="BT4" s="2" t="s">
+      <c r="BU4" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="BU4" s="2" t="s">
+      <c r="BV4" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="BV4" s="2" t="s">
+      <c r="BW4" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="BW4" s="2" t="s">
+      <c r="BX4" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="BX4" s="2" t="s">
+      <c r="BY4" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="BY4" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AC5" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD5" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AL5" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AN5" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AO5" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AP5" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="AQ5" s="2" t="s">
+      <c r="AR5" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AS5" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AT5" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AU5" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AU5" s="2" t="s">
+      <c r="AV5" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AW5" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AY5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="BA5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="BB5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="BC5" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="BC5" s="2" t="s">
+      <c r="BD5" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="BD5" s="2" t="s">
+      <c r="BE5" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="BH5" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="BH5" s="2" t="s">
+      <c r="BI5" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="BI5" s="2" t="s">
+      <c r="BJ5" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="BJ5" s="2" t="s">
+      <c r="BK5" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="BK5" s="2" t="s">
+      <c r="BL5" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="BL5" s="2" t="s">
+      <c r="BM5" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="BM5" s="2" t="s">
+      <c r="BN5" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="BN5" s="2" t="s">
+      <c r="BO5" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="BO5" s="2" t="s">
+      <c r="BP5" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="BP5" s="2" t="s">
+      <c r="BQ5" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="BQ5" s="2" t="s">
+      <c r="BR5" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="BR5" s="2" t="s">
+      <c r="BS5" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="BS5" s="2" t="s">
+      <c r="BT5" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="BT5" s="2" t="s">
+      <c r="BU5" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="BU5" s="2" t="s">
+      <c r="BV5" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="BV5" s="2" t="s">
+      <c r="BW5" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="BW5" s="2" t="s">
+      <c r="BX5" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="BX5" s="2" t="s">
+      <c r="BY5" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="BY5" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="AB6" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE6" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="AI6" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AL6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM6" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AL6" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AN6" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="AQ6" s="2" t="s">
+      <c r="AR6" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AS6" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AT6" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AU6" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="AV6" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AX6" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="AX6" s="2" t="s">
+      <c r="AY6" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="AY6" s="2" t="s">
+      <c r="AZ6" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="BA6" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="BA6" s="2" t="s">
+      <c r="BB6" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="BB6" s="2" t="s">
+      <c r="BC6" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="BC6" s="2" t="s">
+      <c r="BD6" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="BD6" s="2" t="s">
+      <c r="BE6" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="BH6" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="BH6" s="2" t="s">
+      <c r="BI6" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="BI6" s="2" t="s">
+      <c r="BJ6" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BJ6" s="2" t="s">
+      <c r="BK6" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BK6" s="2" t="s">
+      <c r="BL6" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="BL6" s="2" t="s">
+      <c r="BM6" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="BM6" s="2" t="s">
+      <c r="BN6" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="BN6" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="BO6" s="2"/>
       <c r="BP6" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BQ6" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="BQ6" s="2" t="s">
+      <c r="BR6" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="BR6" s="2" t="s">
+      <c r="BS6" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BS6" s="2" t="s">
+      <c r="BT6" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="BT6" s="2" t="s">
+      <c r="BU6" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="BU6" s="2" t="s">
+      <c r="BV6" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="BV6" s="2" t="s">
+      <c r="BW6" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="BW6" s="2" t="s">
+      <c r="BX6" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="BX6" s="2" t="s">
+      <c r="BY6" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="BY6" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="Y7" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z7" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH7" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AM7" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="AR7" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AT7" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AV7" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AX7" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="BA7" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="BA7" s="2" t="s">
+      <c r="BB7" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BC7" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="BC7" s="2" t="s">
+      <c r="BD7" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BE7" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="BE7" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BH7" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="BH7" s="2" t="s">
+      <c r="BI7" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="BI7" s="2" t="s">
+      <c r="BJ7" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="BJ7" s="2" t="s">
+      <c r="BK7" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="BK7" s="2" t="s">
+      <c r="BL7" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="BL7" s="2" t="s">
+      <c r="BM7" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="BM7" s="2" t="s">
+      <c r="BN7" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="BN7" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="BO7" s="2"/>
       <c r="BP7" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="BQ7" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="BQ7" s="2" t="s">
+      <c r="BR7" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="BR7" s="2" t="s">
+      <c r="BS7" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="BS7" s="2" t="s">
+      <c r="BT7" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="BT7" s="2" t="s">
+      <c r="BU7" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="BU7" s="2" t="s">
+      <c r="BV7" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="BV7" s="2" t="s">
+      <c r="BW7" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="BW7" s="2" t="s">
+      <c r="BX7" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="BX7" s="2" t="s">
+      <c r="BY7" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="BY7" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH8" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="AK8" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AL8" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AS8" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="AS8" s="2" t="s">
+      <c r="AT8" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="AT8" s="2" t="s">
+      <c r="AU8" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="AU8" s="2" t="s">
+      <c r="AV8" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AW8" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AX8" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2" t="s">
         <v>89</v>
       </c>
       <c r="BA8" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="BB8" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="BB8" s="2" t="s">
+      <c r="BC8" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="BC8" s="2" t="s">
+      <c r="BD8" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="BD8" s="2" t="s">
+      <c r="BE8" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="BI8" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="BI8" s="2" t="s">
+      <c r="BJ8" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="BJ8" s="2" t="s">
+      <c r="BK8" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="BK8" s="2" t="s">
+      <c r="BL8" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="BL8" s="2" t="s">
+      <c r="BM8" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="BM8" s="2" t="s">
+      <c r="BN8" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="BN8" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="BO8" s="2"/>
       <c r="BP8" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="BQ8" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="BQ8" s="2" t="s">
+      <c r="BR8" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="BR8" s="2" t="s">
+      <c r="BS8" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="BS8" s="2" t="s">
+      <c r="BT8" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="BT8" s="2" t="s">
+      <c r="BU8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BV8" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="BU8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BV8" s="2" t="s">
+      <c r="BW8" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="BW8" s="2" t="s">
+      <c r="BX8" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="BX8" s="2" t="s">
+      <c r="BY8" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="BY8" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="X9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE9" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AH9" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="AK9" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AM9" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
@@ -17275,182 +17272,182 @@
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AT9" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="AT9" s="2" t="s">
+      <c r="AU9" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV9" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="AU9" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AW9" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="AX9" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AX9" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="BA9" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="BA9" s="2" t="s">
+      <c r="BB9" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="BC9" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="BB9" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="BC9" s="2" t="s">
+      <c r="BD9" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="BD9" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="BI9" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="BI9" s="2" t="s">
+      <c r="BJ9" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="BJ9" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="BK9" s="2"/>
       <c r="BL9" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="BM9" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="BM9" s="2" t="s">
+      <c r="BN9" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="BN9" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="BO9" s="2"/>
       <c r="BP9" s="2"/>
       <c r="BQ9" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="BR9" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="BR9" s="2" t="s">
+      <c r="BS9" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="BS9" s="2" t="s">
+      <c r="BT9" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="BT9" s="2" t="s">
+      <c r="BU9" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="BU9" s="2" t="s">
+      <c r="BV9" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="BV9" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="BW9" s="2"/>
       <c r="BX9" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="BY9" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="BY9" s="2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="S10" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="AE10" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="AH10" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="AM10" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
@@ -17458,30 +17455,30 @@
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AV10" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="AW10" s="2" t="s">
+      <c r="AX10" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="AX10" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="BA10" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="BA10" s="2" t="s">
+      <c r="BB10" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="BB10" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
@@ -17489,133 +17486,133 @@
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="BI10" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="BI10" s="2" t="s">
+      <c r="BJ10" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="BJ10" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
       <c r="BN10" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="BO10" s="2"/>
       <c r="BP10" s="2"/>
       <c r="BQ10" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BR10" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="BS10" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="BS10" s="2" t="s">
+      <c r="BT10" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="BT10" s="2" t="s">
+      <c r="BU10" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="BU10" s="2" t="s">
+      <c r="BV10" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="BV10" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="BW10" s="2"/>
       <c r="BX10" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BY10" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="BY10" s="2" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="AE11" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="AH11" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="AM11" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
@@ -17623,28 +17620,28 @@
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="AV11" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="AV11" s="2" t="s">
+      <c r="AW11" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="AW11" s="2" t="s">
+      <c r="AX11" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="AX11" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BB11" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
@@ -17652,11 +17649,11 @@
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
@@ -17666,19 +17663,19 @@
       <c r="BP11" s="2"/>
       <c r="BQ11" s="2"/>
       <c r="BR11" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="BS11" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="BS11" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="BT11" s="2"/>
       <c r="BU11" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="BV11" s="2"/>
       <c r="BW11" s="2"/>
       <c r="BX11" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="BY11" s="2"/>
     </row>
@@ -17687,13 +17684,13 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -17704,59 +17701,59 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE12" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -17766,11 +17763,11 @@
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
@@ -17785,7 +17782,7 @@
       <c r="BH12" s="2"/>
       <c r="BI12" s="2"/>
       <c r="BJ12" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="BK12" s="2"/>
       <c r="BL12" s="2"/>
@@ -17795,12 +17792,12 @@
       <c r="BP12" s="2"/>
       <c r="BQ12" s="2"/>
       <c r="BR12" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="BS12" s="2"/>
       <c r="BT12" s="2"/>
       <c r="BU12" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="BV12" s="2"/>
       <c r="BW12" s="2"/>
@@ -17812,13 +17809,13 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -17829,47 +17826,47 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>751</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
@@ -17885,11 +17882,11 @@
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
@@ -17912,12 +17909,12 @@
       <c r="BP13" s="2"/>
       <c r="BQ13" s="2"/>
       <c r="BR13" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="BS13" s="2"/>
       <c r="BT13" s="2"/>
       <c r="BU13" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="BV13" s="2"/>
       <c r="BW13" s="2"/>
@@ -17929,10 +17926,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -17944,35 +17941,35 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -17980,7 +17977,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
@@ -17998,7 +17995,7 @@
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
@@ -18024,7 +18021,7 @@
       <c r="BS14" s="2"/>
       <c r="BT14" s="2"/>
       <c r="BU14" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="BV14" s="2"/>
       <c r="BW14" s="2"/>
@@ -18036,10 +18033,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -18051,28 +18048,28 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -18101,7 +18098,7 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
@@ -18137,10 +18134,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -18152,25 +18149,25 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -18200,7 +18197,7 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
@@ -18237,7 +18234,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -18249,23 +18246,23 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -18295,7 +18292,7 @@
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
@@ -18332,7 +18329,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -18344,20 +18341,20 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -18433,18 +18430,18 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>809</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -18605,7 +18602,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -18667,6 +18664,8 @@
       <c r="BY21" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="CaP7daMFvRoXMORFeaxIrFbftTbkP4D1+y2J8DqftCPPps5elyYuZZx8zJmLSiNv9MnPo/l8MS4Xvv6IFy2zNQ==" saltValue="7qdPmaiWAYr2yoiziuxt/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/downloads/excel/cases_payment_import_template.xlsx
+++ b/public/downloads/excel/cases_payment_import_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Guide\Lab_Bulk_Upload\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Guide\Lab_Bulk_Upload\Cases_Payment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3812,9 +3812,9 @@
   </sheetPr>
   <dimension ref="A1:X2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3832,9 +3832,9 @@
     <col min="12" max="13" width="17.85546875" style="6" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="6" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" style="6" customWidth="1"/>
-    <col min="16" max="17" width="15" style="6" customWidth="1"/>
-    <col min="18" max="23" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="0" style="3" hidden="1"/>
+    <col min="16" max="16" width="15" style="6" customWidth="1"/>
+    <col min="17" max="17" width="31.5703125" style="6" customWidth="1"/>
+    <col min="18" max="24" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -14874,7 +14874,7 @@
     <row r="2000" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="2001" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7FjrVK8uoTLtQKrQrRAoSQeYcSzwMyr5sYIkhcl9vMyk6GsJq+ptB4CbqC98e1KY1hfp2tzC9YImVOxcnF2RoQ==" saltValue="gUbE7N5rEM9GdRVlTzoq0A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jfWlIuw/2LJGTWpSNpWop/4+F1ep4hpbu8iuqdpGWw18ArqgjVqTD18jYFFEQhw/VJI9OZSotqy9c5r28tEbYA==" saltValue="xDxx5DW+tTMgpIJ9isB6LQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F500">
       <formula1>"Year,Month,Day"</formula1>
@@ -14895,7 +14895,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
       <formula1>"PCR,Antigen,Clinical Diagnosis,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576 Q501:Q1048576">
       <formula1>"Paid, Free"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
@@ -14933,9 +14933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15252,7 +15250,6 @@
       <c r="G15" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m+Fyi06VgATBwn43EfmrKNJkh2HABbougplfcgapgrFwW4vKUy8Tw9F6EnT1XWwd42o4yZsxzYLg/VbJrPvjYg==" saltValue="3g1VnFSbJefPZLJ7+dGwEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15261,7 +15258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AU6" sqref="AU6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18664,8 +18663,6 @@
       <c r="BY21" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CaP7daMFvRoXMORFeaxIrFbftTbkP4D1+y2J8DqftCPPps5elyYuZZx8zJmLSiNv9MnPo/l8MS4Xvv6IFy2zNQ==" saltValue="7qdPmaiWAYr2yoiziuxt/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>